--- a/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1119 +453,1860 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44921</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44928</v>
+        <v>44934</v>
       </c>
       <c r="B3" t="n">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44942</v>
+        <v>44948</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44949</v>
+        <v>44955</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44956</v>
+        <v>44955</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44977</v>
+        <v>44962</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
-      </c>
-      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44984</v>
+        <v>44983</v>
       </c>
       <c r="B8" t="n">
-        <v>260</v>
-      </c>
-      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44991</v>
+        <v>44990</v>
       </c>
       <c r="B9" t="n">
-        <v>292</v>
-      </c>
-      <c r="C9" t="n">
+        <v>260</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44998</v>
+        <v>44997</v>
       </c>
       <c r="B10" t="n">
-        <v>301</v>
-      </c>
-      <c r="C10" t="n">
+        <v>292</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45005</v>
+        <v>45004</v>
       </c>
       <c r="B11" t="n">
-        <v>352</v>
-      </c>
-      <c r="C11" t="n">
+        <v>301</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45012</v>
+        <v>45011</v>
       </c>
       <c r="B12" t="n">
-        <v>398</v>
-      </c>
-      <c r="C12" t="n">
+        <v>352</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45019</v>
+        <v>45018</v>
       </c>
       <c r="B13" t="n">
-        <v>360</v>
-      </c>
-      <c r="C13" t="n">
+        <v>398</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45026</v>
+        <v>45025</v>
       </c>
       <c r="B14" t="n">
-        <v>242</v>
-      </c>
-      <c r="C14" t="n">
+        <v>360</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45033</v>
+        <v>45032</v>
       </c>
       <c r="B15" t="n">
-        <v>222</v>
-      </c>
-      <c r="C15" t="n">
+        <v>242</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45040</v>
+        <v>45039</v>
       </c>
       <c r="B16" t="n">
-        <v>174</v>
-      </c>
-      <c r="C16" t="n">
+        <v>222</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45047</v>
+        <v>45046</v>
       </c>
       <c r="B17" t="n">
-        <v>146</v>
-      </c>
-      <c r="C17" t="n">
+        <v>174</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45054</v>
+        <v>45053</v>
       </c>
       <c r="B18" t="n">
-        <v>237</v>
-      </c>
-      <c r="C18" t="n">
+        <v>146</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45061</v>
+        <v>45060</v>
       </c>
       <c r="B19" t="n">
-        <v>325</v>
-      </c>
-      <c r="C19" t="n">
+        <v>237</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45068</v>
+        <v>45067</v>
       </c>
       <c r="B20" t="n">
-        <v>237</v>
-      </c>
-      <c r="C20" t="n">
+        <v>325</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45075</v>
+        <v>45074</v>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" t="n">
+        <v>237</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="B22" t="n">
-        <v>139</v>
-      </c>
-      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="B23" t="n">
-        <v>300</v>
-      </c>
-      <c r="C23" t="n">
+        <v>139</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45096</v>
+        <v>45095</v>
       </c>
       <c r="B24" t="n">
-        <v>393</v>
-      </c>
-      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45103</v>
+        <v>45102</v>
       </c>
       <c r="B25" t="n">
-        <v>676</v>
-      </c>
-      <c r="C25" t="n">
+        <v>393</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45110</v>
+        <v>45109</v>
       </c>
       <c r="B26" t="n">
-        <v>296</v>
-      </c>
-      <c r="C26" t="n">
+        <v>676</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45117</v>
+        <v>45116</v>
       </c>
       <c r="B27" t="n">
-        <v>497</v>
-      </c>
-      <c r="C27" t="n">
+        <v>296</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45124</v>
+        <v>45123</v>
       </c>
       <c r="B28" t="n">
-        <v>466</v>
-      </c>
-      <c r="C28" t="n">
+        <v>497</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45131</v>
+        <v>45130</v>
       </c>
       <c r="B29" t="n">
-        <v>288</v>
-      </c>
-      <c r="C29" t="n">
+        <v>466</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45138</v>
+        <v>45137</v>
       </c>
       <c r="B30" t="n">
-        <v>166</v>
-      </c>
-      <c r="C30" t="n">
+        <v>288</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45145</v>
+        <v>45144</v>
       </c>
       <c r="B31" t="n">
-        <v>302</v>
-      </c>
-      <c r="C31" t="n">
+        <v>166</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45152</v>
+        <v>45151</v>
       </c>
       <c r="B32" t="n">
-        <v>515</v>
-      </c>
-      <c r="C32" t="n">
+        <v>302</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45159</v>
+        <v>45158</v>
       </c>
       <c r="B33" t="n">
-        <v>386</v>
-      </c>
-      <c r="C33" t="n">
+        <v>515</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45166</v>
+        <v>45165</v>
       </c>
       <c r="B34" t="n">
-        <v>584</v>
-      </c>
-      <c r="C34" t="n">
+        <v>386</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45173</v>
+        <v>45172</v>
       </c>
       <c r="B35" t="n">
-        <v>502</v>
-      </c>
-      <c r="C35" t="n">
+        <v>584</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45180</v>
+        <v>45179</v>
       </c>
       <c r="B36" t="n">
-        <v>329</v>
-      </c>
-      <c r="C36" t="n">
+        <v>502</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45187</v>
+        <v>45186</v>
       </c>
       <c r="B37" t="n">
-        <v>362</v>
-      </c>
-      <c r="C37" t="n">
+        <v>329</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45194</v>
+        <v>45193</v>
       </c>
       <c r="B38" t="n">
-        <v>604</v>
-      </c>
-      <c r="C38" t="n">
+        <v>362</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45201</v>
+        <v>45200</v>
       </c>
       <c r="B39" t="n">
-        <v>498</v>
-      </c>
-      <c r="C39" t="n">
+        <v>604</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45208</v>
+        <v>45207</v>
       </c>
       <c r="B40" t="n">
-        <v>432</v>
-      </c>
-      <c r="C40" t="n">
+        <v>498</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45215</v>
+        <v>45214</v>
       </c>
       <c r="B41" t="n">
-        <v>600</v>
-      </c>
-      <c r="C41" t="n">
+        <v>432</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45222</v>
+        <v>45221</v>
       </c>
       <c r="B42" t="n">
-        <v>718</v>
-      </c>
-      <c r="C42" t="n">
+        <v>600</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="B43" t="n">
-        <v>751</v>
-      </c>
-      <c r="C43" t="n">
+        <v>718</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45236</v>
+        <v>45235</v>
       </c>
       <c r="B44" t="n">
-        <v>831</v>
-      </c>
-      <c r="C44" t="n">
+        <v>751</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45243</v>
+        <v>45242</v>
       </c>
       <c r="B45" t="n">
-        <v>402</v>
-      </c>
-      <c r="C45" t="n">
+        <v>831</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="B46" t="n">
-        <v>949</v>
-      </c>
-      <c r="C46" t="n">
+        <v>402</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="B47" t="n">
-        <v>733</v>
-      </c>
-      <c r="C47" t="n">
+        <v>949</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45264</v>
+        <v>45263</v>
       </c>
       <c r="B48" t="n">
-        <v>911</v>
-      </c>
-      <c r="C48" t="n">
+        <v>733</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45271</v>
+        <v>45270</v>
       </c>
       <c r="B49" t="n">
-        <v>867</v>
-      </c>
-      <c r="C49" t="n">
+        <v>911</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45285</v>
+        <v>45277</v>
       </c>
       <c r="B50" t="n">
-        <v>663</v>
-      </c>
-      <c r="C50" t="n">
+        <v>867</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45292</v>
+        <v>45291</v>
       </c>
       <c r="B51" t="n">
-        <v>569</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9090</v>
+        <v>663</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="n">
-        <v>535</v>
-      </c>
-      <c r="C52" t="n">
+        <v>569</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45306</v>
+        <v>45305</v>
       </c>
       <c r="B53" t="n">
-        <v>597</v>
-      </c>
-      <c r="C53" t="n">
-        <v>864</v>
+        <v>535</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45313</v>
+        <v>45312</v>
       </c>
       <c r="B54" t="n">
-        <v>580</v>
-      </c>
-      <c r="C54" t="n">
+        <v>597</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45320</v>
+        <v>45319</v>
       </c>
       <c r="B55" t="n">
-        <v>642</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1548</v>
+        <v>580</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B56" t="n">
-        <v>693</v>
-      </c>
-      <c r="C56" t="n">
+        <v>642</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45334</v>
+        <v>45333</v>
       </c>
       <c r="B57" t="n">
-        <v>652</v>
-      </c>
-      <c r="C57" t="n">
+        <v>693</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45341</v>
+        <v>45340</v>
       </c>
       <c r="B58" t="n">
-        <v>562</v>
-      </c>
-      <c r="C58" t="n">
+        <v>652</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45348</v>
+        <v>45347</v>
       </c>
       <c r="B59" t="n">
-        <v>314</v>
-      </c>
-      <c r="C59" t="n">
+        <v>562</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45355</v>
+        <v>45354</v>
       </c>
       <c r="B60" t="n">
-        <v>203</v>
-      </c>
-      <c r="C60" t="n">
+        <v>314</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="B61" t="n">
-        <v>184</v>
-      </c>
-      <c r="C61" t="n">
+        <v>203</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45369</v>
+        <v>45368</v>
       </c>
       <c r="B62" t="n">
-        <v>48</v>
-      </c>
-      <c r="C62" t="n">
+        <v>184</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45376</v>
+        <v>45375</v>
       </c>
       <c r="B63" t="n">
         <v>48</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B64" t="n">
-        <v>22</v>
-      </c>
-      <c r="C64" t="n">
+        <v>48</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45390</v>
+        <v>45389</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3576</v>
+        <v>22</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45397</v>
+        <v>45396</v>
       </c>
       <c r="B66" t="n">
-        <v>121</v>
-      </c>
-      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45404</v>
+        <v>45403</v>
       </c>
       <c r="B67" t="n">
-        <v>286</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12</v>
+        <v>121</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45411</v>
+        <v>45410</v>
       </c>
       <c r="B68" t="n">
-        <v>229</v>
-      </c>
-      <c r="C68" t="n">
+        <v>286</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B69" t="n">
-        <v>231</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1332</v>
+        <v>229</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45425</v>
+        <v>45424</v>
       </c>
       <c r="B70" t="n">
-        <v>264</v>
-      </c>
-      <c r="C70" t="n">
-        <v>300</v>
+        <v>231</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="B71" t="n">
-        <v>153</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2856</v>
+        <v>264</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B72" t="n">
-        <v>363</v>
-      </c>
-      <c r="C72" t="n">
-        <v>492</v>
+        <v>153</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="B73" t="n">
-        <v>326</v>
-      </c>
-      <c r="C73" t="n">
+        <v>363</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45453</v>
+        <v>45452</v>
       </c>
       <c r="B74" t="n">
-        <v>257</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3180</v>
+        <v>326</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B75" t="n">
-        <v>407</v>
-      </c>
-      <c r="C75" t="n">
-        <v>684</v>
+        <v>257</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B76" t="n">
-        <v>435</v>
-      </c>
-      <c r="C76" t="n">
-        <v>468</v>
+        <v>407</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B77" t="n">
-        <v>485</v>
-      </c>
-      <c r="C77" t="n">
+        <v>435</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45481</v>
+        <v>45480</v>
       </c>
       <c r="B78" t="n">
-        <v>552</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1428</v>
+        <v>485</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="B79" t="n">
-        <v>405</v>
-      </c>
-      <c r="C79" t="n">
-        <v>900</v>
+        <v>552</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45495</v>
+        <v>45494</v>
       </c>
       <c r="B80" t="n">
-        <v>368</v>
-      </c>
-      <c r="C80" t="n">
+        <v>405</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45502</v>
+        <v>45501</v>
       </c>
       <c r="B81" t="n">
-        <v>432</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1392</v>
+        <v>368</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45509</v>
+        <v>45508</v>
       </c>
       <c r="B82" t="n">
-        <v>424</v>
-      </c>
-      <c r="C82" t="n">
-        <v>48</v>
+        <v>432</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45516</v>
+        <v>45515</v>
       </c>
       <c r="B83" t="n">
-        <v>370</v>
-      </c>
-      <c r="C83" t="n">
-        <v>924</v>
+        <v>424</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45523</v>
+        <v>45522</v>
       </c>
       <c r="B84" t="n">
-        <v>1838</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2220</v>
+        <v>370</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45530</v>
+        <v>45529</v>
       </c>
       <c r="B85" t="n">
-        <v>439</v>
-      </c>
-      <c r="C85" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="B86" t="n">
-        <v>489</v>
-      </c>
-      <c r="C86" t="n">
-        <v>756</v>
+        <v>439</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45544</v>
+        <v>45543</v>
       </c>
       <c r="B87" t="n">
-        <v>437</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2592</v>
+        <v>489</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45551</v>
+        <v>45550</v>
       </c>
       <c r="B88" t="n">
-        <v>340</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2988</v>
+        <v>437</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45558</v>
+        <v>45557</v>
       </c>
       <c r="B89" t="n">
-        <v>332</v>
-      </c>
-      <c r="C89" t="n">
-        <v>4776</v>
+        <v>340</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45565</v>
+        <v>45564</v>
       </c>
       <c r="B90" t="n">
-        <v>248</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1656</v>
+        <v>332</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45572</v>
+        <v>45571</v>
       </c>
       <c r="B91" t="n">
-        <v>588</v>
-      </c>
-      <c r="C91" t="n">
+        <v>248</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45579</v>
+        <v>45578</v>
       </c>
       <c r="B92" t="n">
-        <v>353</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5688</v>
+        <v>588</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="B93" t="n">
-        <v>236</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4632</v>
+        <v>353</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45593</v>
+        <v>45592</v>
       </c>
       <c r="B94" t="n">
-        <v>285</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1284</v>
+        <v>236</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B95" t="n">
-        <v>310</v>
-      </c>
-      <c r="C95" t="n">
+        <v>285</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B96" t="n">
-        <v>769</v>
-      </c>
-      <c r="C96" t="n">
+        <v>310</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B97" t="n">
-        <v>1916</v>
-      </c>
-      <c r="C97" t="n">
+        <v>769</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="B98" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C98" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="B99" t="n">
-        <v>696</v>
-      </c>
-      <c r="C99" t="n">
-        <v>24</v>
+        <v>1978</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="B100" t="n">
-        <v>610</v>
-      </c>
-      <c r="C100" t="n">
+        <v>696</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="B101" t="n">
-        <v>435</v>
-      </c>
-      <c r="C101" t="n">
+        <v>610</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B102" t="n">
+        <v>435</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B103" t="n">
+        <v>428</v>
+      </c>
+      <c r="C103" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B102" t="n">
-        <v>428</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9090</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B3" t="n">
+        <v>864</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-90.4950495049505</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79.16666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3576</v>
+      </c>
+      <c r="C5" t="n">
+        <v>131.0077519379845</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-99.66442953020133</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B8" t="n">
+        <v>300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-77.47747747747748</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2856</v>
+      </c>
+      <c r="C9" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B10" t="n">
+        <v>492</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-82.77310924369748</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3180</v>
+      </c>
+      <c r="C11" t="n">
+        <v>546.3414634146342</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B12" t="n">
+        <v>684</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-78.49056603773586</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B13" t="n">
+        <v>468</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-31.57894736842105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C14" t="n">
+        <v>205.1282051282051</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B15" t="n">
+        <v>900</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-36.97478991596639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C16" t="n">
+        <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B17" t="n">
+        <v>48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-96.55172413793103</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B18" t="n">
+        <v>924</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C19" t="n">
+        <v>140.2597402597403</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B20" t="n">
+        <v>756</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-65.94594594594594</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2592</v>
+      </c>
+      <c r="C21" t="n">
+        <v>242.8571428571428</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2988</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15.27777777777777</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4776</v>
+      </c>
+      <c r="C23" t="n">
+        <v>59.83935742971887</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-65.32663316582914</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5688</v>
+      </c>
+      <c r="C25" t="n">
+        <v>243.4782608695652</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4632</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-18.56540084388185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1284</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-72.279792746114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B28" t="n">
+        <v>24</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-98.13084112149532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55710</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2063.333333333333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9090</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2055.897435897436</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1440 +453,1118 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44934</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44948</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44955</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>1158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44955</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44962</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44983</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="C8" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44990</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>260</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>292</v>
+      </c>
+      <c r="C9" t="n">
+        <v>642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44997</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>292</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D10" t="n">
+        <v>301</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45004</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>301</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45011</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>352</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>398</v>
+      </c>
+      <c r="C12" t="n">
+        <v>432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45018</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>398</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="C13" t="n">
+        <v>798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45025</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45032</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>242</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="C15" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45039</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>222</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="C16" t="n">
+        <v>456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45046</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="C17" t="n">
+        <v>660</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45053</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>146</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="C18" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45060</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>237</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="C19" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45067</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>325</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="C20" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45074</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>237</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45081</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="C22" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45088</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>139</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="C23" t="n">
+        <v>774</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45095</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>300</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+        <v>393</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45102</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>393</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+        <v>676</v>
+      </c>
+      <c r="C25" t="n">
+        <v>852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45109</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>676</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="C26" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45116</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>296</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="C27" t="n">
+        <v>558</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45123</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>497</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45130</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>466</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="C29" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45137</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>288</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="C30" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45144</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>166</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+        <v>302</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45151</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>302</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="C32" t="n">
+        <v>546</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45158</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>515</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D33" t="n">
+        <v>386</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45165</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>386</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>584</v>
+      </c>
+      <c r="C34" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45172</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>584</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="C35" t="n">
+        <v>768</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45179</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>502</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="C36" t="n">
+        <v>786</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45186</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>329</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="C37" t="n">
+        <v>426</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45193</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>362</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>604</v>
+      </c>
+      <c r="C38" t="n">
+        <v>858</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45200</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>604</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="C39" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45207</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>498</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>432</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1008</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45214</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>432</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1740</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45221</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>600</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+        <v>718</v>
+      </c>
+      <c r="C42" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45228</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>718</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+        <v>751</v>
+      </c>
+      <c r="C43" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45235</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>751</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+        <v>831</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45242</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>831</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+        <v>402</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3444</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45249</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>402</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D46" t="n">
+        <v>949</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45256</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>949</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+        <v>733</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45263</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>733</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>911</v>
+      </c>
+      <c r="C48" t="n">
+        <v>492</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45270</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>911</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+        <v>867</v>
+      </c>
+      <c r="C49" t="n">
+        <v>486</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45277</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>867</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D50" t="n">
+        <v>663</v>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45291</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>663</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+        <v>569</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9090</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>569</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D52" t="n">
+        <v>535</v>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45305</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>535</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+        <v>597</v>
+      </c>
+      <c r="C53" t="n">
+        <v>864</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45312</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>597</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D54" t="n">
+        <v>580</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45319</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>580</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+        <v>642</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1548</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45326</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>642</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D56" t="n">
+        <v>693</v>
+      </c>
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45333</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>693</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D57" t="n">
+        <v>652</v>
+      </c>
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45340</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>652</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D58" t="n">
+        <v>562</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45347</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>562</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D59" t="n">
+        <v>314</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45354</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>314</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D60" t="n">
+        <v>203</v>
+      </c>
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45361</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>203</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D61" t="n">
+        <v>184</v>
+      </c>
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45368</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>184</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D62" t="n">
+        <v>48</v>
+      </c>
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45375</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>48</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45382</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>48</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D64" t="n">
+        <v>22</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45389</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>22</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3576</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45396</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D66" t="n">
+        <v>121</v>
+      </c>
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45403</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>121</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45410</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>286</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D68" t="n">
+        <v>229</v>
+      </c>
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45417</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>229</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+        <v>231</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1332</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45424</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>231</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="C70" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45431</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>264</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2856</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45438</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>153</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="C72" t="n">
+        <v>492</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45445</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>363</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D73" t="n">
+        <v>326</v>
+      </c>
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45452</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>326</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3180</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45459</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>257</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+        <v>407</v>
+      </c>
+      <c r="C75" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45466</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>407</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
+        <v>435</v>
+      </c>
+      <c r="C76" t="n">
+        <v>468</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45473</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>435</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D77" t="n">
+        <v>485</v>
+      </c>
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45480</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>485</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+        <v>552</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1428</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45487</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>552</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+        <v>405</v>
+      </c>
+      <c r="C79" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45494</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>405</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D80" t="n">
+        <v>368</v>
+      </c>
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45501</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>368</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+        <v>432</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1392</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45508</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>432</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+        <v>424</v>
+      </c>
+      <c r="C82" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45515</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>424</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="C83" t="n">
+        <v>924</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45522</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>370</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
+        <v>1838</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2220</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45529</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>1838</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D85" t="n">
+        <v>439</v>
+      </c>
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45536</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>439</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+        <v>489</v>
+      </c>
+      <c r="C86" t="n">
+        <v>756</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45543</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>489</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+        <v>437</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2592</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45550</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B88" t="n">
-        <v>437</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2988</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45557</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>340</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
+        <v>332</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4776</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45564</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>332</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1656</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45571</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>248</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D91" t="n">
+        <v>588</v>
+      </c>
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45578</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B92" t="n">
-        <v>588</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
+        <v>353</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5688</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45585</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>353</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4632</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45592</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>236</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1284</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45599</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>285</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D95" t="n">
+        <v>310</v>
+      </c>
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45606</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>310</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D96" t="n">
+        <v>769</v>
+      </c>
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45613</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>769</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D97" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45620</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B98" t="n">
-        <v>1916</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D98" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45627</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
+        <v>696</v>
+      </c>
+      <c r="C99" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45634</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B100" t="n">
-        <v>696</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D100" t="n">
+        <v>610</v>
+      </c>
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45641</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>610</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D101" t="n">
+        <v>435</v>
+      </c>
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45648</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B102" t="n">
-        <v>435</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B103" t="n">
         <v>428</v>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D103" t="n">
+      <c r="C102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +1579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1928,10 +1606,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>9090</v>
+        <v>546</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1939,287 +1617,782 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>864</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>-90.4950495049505</v>
+        <v>-97.8021978021978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1548</v>
+        <v>330</v>
       </c>
       <c r="C4" t="n">
-        <v>79.16666666666667</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45390</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3576</v>
+        <v>1158</v>
       </c>
       <c r="C5" t="n">
-        <v>131.0077519379845</v>
+        <v>250.9090909090909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45404</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>666</v>
       </c>
       <c r="C6" t="n">
-        <v>-99.66442953020133</v>
+        <v>-42.48704663212435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45418</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1332</v>
+        <v>864</v>
       </c>
       <c r="C7" t="n">
-        <v>11000</v>
+        <v>29.72972972972974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="C8" t="n">
-        <v>-77.47747747747748</v>
+        <v>-55.55555555555556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2856</v>
+        <v>642</v>
       </c>
       <c r="C9" t="n">
-        <v>852</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>492</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>-82.77310924369748</v>
+        <v>-93.45794392523365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45453</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>3180</v>
+        <v>432</v>
       </c>
       <c r="C11" t="n">
-        <v>546.3414634146342</v>
+        <v>928.5714285714287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45460</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>684</v>
+        <v>798</v>
       </c>
       <c r="C12" t="n">
-        <v>-78.49056603773586</v>
+        <v>84.72222222222223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45467</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>468</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>-31.57894736842105</v>
+        <v>-99.24812030075188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1428</v>
+        <v>420</v>
       </c>
       <c r="C14" t="n">
-        <v>205.1282051282051</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45488</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>900</v>
+        <v>456</v>
       </c>
       <c r="C15" t="n">
-        <v>-36.97478991596639</v>
+        <v>8.571428571428562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45502</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>1392</v>
+        <v>660</v>
       </c>
       <c r="C16" t="n">
-        <v>54.66666666666666</v>
+        <v>44.73684210526316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45509</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="C17" t="n">
-        <v>-96.55172413793103</v>
+        <v>-51.81818181818182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45516</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>924</v>
+        <v>270</v>
       </c>
       <c r="C18" t="n">
-        <v>1825</v>
+        <v>-15.09433962264151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45523</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>2220</v>
+        <v>156</v>
       </c>
       <c r="C19" t="n">
-        <v>140.2597402597403</v>
+        <v>-42.22222222222223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45537</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="C20" t="n">
-        <v>-65.94594594594594</v>
+        <v>284.6153846153846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45544</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>2592</v>
+        <v>696</v>
       </c>
       <c r="C21" t="n">
-        <v>242.8571428571428</v>
+        <v>15.99999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>2988</v>
+        <v>774</v>
       </c>
       <c r="C22" t="n">
-        <v>15.27777777777777</v>
+        <v>11.20689655172413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45558</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>4776</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>59.83935742971887</v>
+        <v>-99.22480620155039</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1656</v>
+        <v>852</v>
       </c>
       <c r="C24" t="n">
-        <v>-65.32663316582914</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45579</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>5688</v>
+        <v>648</v>
       </c>
       <c r="C25" t="n">
-        <v>243.4782608695652</v>
+        <v>-23.94366197183099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45586</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>4632</v>
+        <v>558</v>
       </c>
       <c r="C26" t="n">
-        <v>-18.56540084388185</v>
+        <v>-13.88888888888888</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45593</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1284</v>
+        <v>1248</v>
       </c>
       <c r="C27" t="n">
-        <v>-72.279792746114</v>
+        <v>123.6559139784946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45628</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>780</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>420</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-46.15384615384615</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1206</v>
+      </c>
+      <c r="C30" t="n">
+        <v>187.1428571428571</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>546</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-54.72636815920397</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>222</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-59.34065934065934</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>768</v>
+      </c>
+      <c r="C33" t="n">
+        <v>245.945945945946</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>786</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>426</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-45.80152671755725</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>858</v>
+      </c>
+      <c r="C36" t="n">
+        <v>101.4084507042253</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>420</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-51.04895104895104</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C38" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C39" t="n">
+        <v>72.61904761904762</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>192</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-88.96551724137932</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>108</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1294.444444444445</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3444</v>
+      </c>
+      <c r="C43" t="n">
+        <v>128.6852589641435</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3318</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-3.658536585365857</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>492</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-85.17179023508137</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>486</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.219512195121952</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9090</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1770.37037037037</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>864</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-90.4950495049505</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C49" t="n">
+        <v>79.16666666666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3576</v>
+      </c>
+      <c r="C50" t="n">
+        <v>131.0077519379845</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-99.66442953020133</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>300</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-77.47747747747748</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2856</v>
+      </c>
+      <c r="C54" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>492</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-82.77310924369748</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3180</v>
+      </c>
+      <c r="C56" t="n">
+        <v>546.3414634146342</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>684</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-78.49056603773586</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>468</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-31.57894736842105</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C59" t="n">
+        <v>205.1282051282051</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>900</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-36.97478991596639</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C61" t="n">
+        <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>48</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-96.55172413793103</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>924</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C64" t="n">
+        <v>140.2597402597403</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>756</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-65.94594594594594</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2592</v>
+      </c>
+      <c r="C66" t="n">
+        <v>242.8571428571428</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2988</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15.27777777777777</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4776</v>
+      </c>
+      <c r="C68" t="n">
+        <v>59.83935742971887</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-65.32663316582914</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5688</v>
+      </c>
+      <c r="C70" t="n">
+        <v>243.4782608695652</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4632</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-18.56540084388185</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1284</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-72.279792746114</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B73" t="n">
         <v>24</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C73" t="n">
         <v>-98.13084112149532</v>
       </c>
     </row>
@@ -2266,16 +2439,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55710</v>
+        <v>87978</v>
       </c>
       <c r="B2" t="n">
-        <v>2063.333333333333</v>
+        <v>1221.916666666667</v>
       </c>
       <c r="C2" t="n">
         <v>9090</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +2479,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2055.897435897436</v>
+        <v>2369.096244131455</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,6 +1267,14 @@
       </c>
       <c r="B103" t="n">
         <v>356</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B104" t="n">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -40626,7 +40634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C435"/>
+  <dimension ref="A1:C436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43090,7 +43098,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>174</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224">
@@ -43112,7 +43120,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
     <row r="226">
@@ -43134,7 +43142,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>36</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228">
@@ -43145,7 +43153,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>264</v>
+        <v>42</v>
       </c>
     </row>
     <row r="229">
@@ -43343,7 +43351,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>102</v>
+        <v>222</v>
       </c>
     </row>
     <row r="247">
@@ -43398,7 +43406,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>168</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252">
@@ -43409,7 +43417,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="253">
@@ -43431,7 +43439,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="255">
@@ -43442,7 +43450,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="256">
@@ -43519,7 +43527,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="263">
@@ -43574,7 +43582,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="268">
@@ -43684,7 +43692,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
@@ -43695,7 +43703,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>6</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279">
@@ -43706,7 +43714,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>276</v>
+        <v>84</v>
       </c>
     </row>
     <row r="280">
@@ -43717,7 +43725,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="281">
@@ -43728,7 +43736,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282">
@@ -43739,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>276</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283">
@@ -43750,7 +43758,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="284">
@@ -43761,7 +43769,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>198</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285">
@@ -43772,7 +43780,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>102</v>
+        <v>276</v>
       </c>
     </row>
     <row r="286">
@@ -43860,7 +43868,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>66</v>
+        <v>402</v>
       </c>
     </row>
     <row r="294">
@@ -43871,7 +43879,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="295">
@@ -43893,7 +43901,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>402</v>
+        <v>66</v>
       </c>
     </row>
     <row r="297">
@@ -43904,7 +43912,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="298">
@@ -43915,7 +43923,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>36</v>
+        <v>546</v>
       </c>
     </row>
     <row r="299">
@@ -43937,7 +43945,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>546</v>
+        <v>36</v>
       </c>
     </row>
     <row r="301">
@@ -43948,7 +43956,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="302">
@@ -43959,7 +43967,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="303">
@@ -44014,7 +44022,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308">
@@ -44025,7 +44033,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="309">
@@ -44091,7 +44099,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>504</v>
+        <v>474</v>
       </c>
     </row>
     <row r="315">
@@ -44102,7 +44110,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>474</v>
+        <v>504</v>
       </c>
     </row>
     <row r="316">
@@ -44113,7 +44121,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>474</v>
+        <v>558</v>
       </c>
     </row>
     <row r="317">
@@ -44124,7 +44132,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>54</v>
+        <v>474</v>
       </c>
     </row>
     <row r="318">
@@ -44135,7 +44143,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>558</v>
+        <v>54</v>
       </c>
     </row>
     <row r="319">
@@ -44223,7 +44231,7 @@
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="327">
@@ -44234,7 +44242,7 @@
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328">
@@ -44245,7 +44253,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="329">
@@ -45136,7 +45144,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>2598</v>
+        <v>18</v>
       </c>
     </row>
     <row r="410">
@@ -45147,7 +45155,7 @@
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>18</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="411">
@@ -45169,7 +45177,7 @@
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413">
@@ -45180,7 +45188,7 @@
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="414">
@@ -45422,6 +45430,17 @@
         <v>356</v>
       </c>
       <c r="C435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B436" t="n">
+        <v>304</v>
+      </c>
+      <c r="C436" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,6 +1275,14 @@
       </c>
       <c r="B104" t="n">
         <v>304</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2027</v>
       </c>
     </row>
   </sheetData>
@@ -40634,7 +40642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C436"/>
+  <dimension ref="A1:C437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44825,7 +44833,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>132</v>
+        <v>210</v>
       </c>
     </row>
     <row r="381">
@@ -44836,7 +44844,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>210</v>
+        <v>36</v>
       </c>
     </row>
     <row r="382">
@@ -44847,7 +44855,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="383">
@@ -44858,7 +44866,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>36</v>
+        <v>210</v>
       </c>
     </row>
     <row r="384">
@@ -44880,7 +44888,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>210</v>
+        <v>36</v>
       </c>
     </row>
     <row r="386">
@@ -45441,6 +45449,17 @@
         <v>304</v>
       </c>
       <c r="C436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B437" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C437" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BH7GTY9C_sales_po_comparison.xlsx
@@ -1282,7 +1282,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B105" t="n">
-        <v>2027</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -45457,7 +45457,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B437" t="n">
-        <v>2027</v>
+        <v>282</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
